--- a/qa-testing/Sprint 3/Planeación casos de prueba sprint III.xlsx
+++ b/qa-testing/Sprint 3/Planeación casos de prueba sprint III.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t xml:space="preserve">Épica</t>
   </si>
@@ -108,7 +108,16 @@
     <t xml:space="preserve">Diseñado</t>
   </si>
   <si>
+    <t xml:space="preserve">Pasado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natali Paura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test positivo</t>
   </si>
   <si>
     <t xml:space="preserve">Como usuario autenticado quiero poder
@@ -161,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Búsqueda por fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defecto</t>
   </si>
   <si>
     <t xml:space="preserve">Reserva
@@ -185,14 +197,23 @@
 contener un texto en su parte superior que indique que
 el login es obligatorio y que en caso de no estar
 registrada, la persona usuaria deberá registrarse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que cuando un usuario intente reservar, la página se comporte según lo detallado en la descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que un usuario pueda reservar sólo si tiene la sesión iniciada, de lo contrario que la página lo lleve a inicio de sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Al dar clic en el botón de reserva en página de detalle
+de producto debe chequear si la persona usuaria está
+logueada.
 ● Logueada: Redirigir a la página de reserva
 del producto a reservar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar que cuando un usuario intente reservar, la página se comporte según lo detallado en la descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que un usuario pueda reservar sólo si tiene la sesión iniciada, de lo contrario que la página lo lleve a inicio de sesión</t>
   </si>
   <si>
     <t xml:space="preserve">Como usuario autenticado quiero poder
@@ -200,7 +221,7 @@
 detalle de producto para poder reservarlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">C-025</t>
+    <t xml:space="preserve">C-026</t>
   </si>
   <si>
     <t xml:space="preserve">Implementación de la página de reserva</t>
@@ -238,7 +259,7 @@
 de reservas para poder conﬁrmarla.</t>
   </si>
   <si>
-    <t xml:space="preserve">C-026</t>
+    <t xml:space="preserve">C-027</t>
   </si>
   <si>
     <t xml:space="preserve">Página de reservas funcional</t>
@@ -270,7 +291,7 @@
 reservas para poder deﬁnir el período de mi reserva.</t>
   </si>
   <si>
-    <t xml:space="preserve">C-027</t>
+    <t xml:space="preserve">C-028</t>
   </si>
   <si>
     <t xml:space="preserve">Calendario interactivo</t>
@@ -295,7 +316,7 @@
 asegurarme de que concreté el proceso.</t>
   </si>
   <si>
-    <t xml:space="preserve">C-028</t>
+    <t xml:space="preserve">C-029</t>
   </si>
   <si>
     <t xml:space="preserve">Template de reserva exitosa</t>
@@ -308,6 +329,21 @@
 ○ Debe contener un ícono.
 ○ Un link de volver a home.
 ○ Un mensaje de éxito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda por ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario quiero poder buscar productos de acuerdo a la ciudad de destino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template de home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Al hacer click en “a donde vamos” se debe desplegar una lista de ciudades, al seleccionar una ciudad y al hacer click en el botón “buscar” debe mostrarse los productos que estén localizados en la ciudad seleccionada.</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -351,7 +387,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,12 +437,6 @@
       <name val="AnjaliOldLipi"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="AnjaliOldLipi"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -578,7 +608,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -643,7 +673,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,15 +705,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,7 +812,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,12 +820,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="75.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="57.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="57.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.14"/>
@@ -901,28 +927,34 @@
       <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="98.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>20</v>
@@ -931,36 +963,42 @@
         <v>1</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="88.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>20</v>
@@ -969,36 +1007,42 @@
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="L5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="139.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>20</v>
@@ -1007,77 +1051,89 @@
         <v>1</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="278.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="139.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G7" s="19" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="228.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="278.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G8" s="19" t="n">
         <v>1</v>
@@ -1085,64 +1141,82 @@
       <c r="H8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24"/>
+      <c r="L8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="122" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="228.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="101.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="122" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>20</v>
@@ -1153,15 +1227,95 @@
       <c r="J10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="L10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="101.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="24"/>
+      <c r="L11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="103.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2013,7 +2167,7 @@
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2100,18 +2254,18 @@
     <mergeCell ref="N1:N2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="K3 K5:K10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="K3:K12" type="list">
       <formula1>"No corrido,Pasado,Fallado,No aplica,Bloqueado,No completo,Diferido"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J3" type="list">
       <formula1>"En diseño,Diseñado,En revisión,Revisado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2132,137 +2286,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="46.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="20.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="25" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="20.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="25" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="25" width="15.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="25" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="25" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="25" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="46.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="20.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="24" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="24" width="20.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="24" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="24" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="24" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="24" width="45.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="24" width="14.43"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="26" t="s">
+      <c r="F2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2285,8 +2439,8 @@
     <mergeCell ref="F6:H6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
